--- a/ユニットの挙動テンプレ/モード/1-ストーリー進行度.xlsx
+++ b/ユニットの挙動テンプレ/モード/1-ストーリー進行度.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>ロードID</t>
     <phoneticPr fontId="1"/>
@@ -95,6 +95,31 @@
     <rPh sb="3" eb="5">
       <t>イコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出現フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -465,21 +490,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,16 +513,22 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -504,16 +536,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>0</v>
       </c>
@@ -521,36 +559,42 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F7" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H7" t="s">
         <v>13</v>
       </c>
     </row>
